--- a/precoxvendasquadratica.xlsx
+++ b/precoxvendasquadratica.xlsx
@@ -168,7 +168,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Preço (centavos)</c:v>
+                  <c:v>Vendas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -202,49 +202,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>142</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>151</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>163</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>168</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>176</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>107</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>115</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>126</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>77</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>86</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>95</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>106</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -256,49 +256,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>79</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>79</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>99</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>99</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>119</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>119</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>119</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>119</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>119</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -313,14 +313,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="458965408"/>
-        <c:axId val="458963448"/>
+        <c:axId val="462741784"/>
+        <c:axId val="462741392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="458965408"/>
+        <c:axId val="462741784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="60"/>
+          <c:min val="70"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -375,12 +375,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458963448"/>
+        <c:crossAx val="462741392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="458963448"/>
+        <c:axId val="462741392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -437,7 +437,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="458965408"/>
+        <c:crossAx val="462741784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1046,20 +1046,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>174625</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>479425</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1343,140 +1343,140 @@
   <dimension ref="B3:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
+        <v>79</v>
+      </c>
+      <c r="C4" s="2">
         <v>142</v>
-      </c>
-      <c r="C4" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
+        <v>79</v>
+      </c>
+      <c r="C5" s="2">
         <v>151</v>
-      </c>
-      <c r="C5" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2">
         <v>163</v>
-      </c>
-      <c r="C6" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
+        <v>79</v>
+      </c>
+      <c r="C7" s="2">
         <v>168</v>
-      </c>
-      <c r="C7" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
+        <v>79</v>
+      </c>
+      <c r="C8" s="2">
         <v>176</v>
-      </c>
-      <c r="C8" s="2">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
+        <v>99</v>
+      </c>
+      <c r="C9" s="2">
         <v>91</v>
-      </c>
-      <c r="C9" s="2">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
+        <v>99</v>
+      </c>
+      <c r="C10" s="2">
         <v>100</v>
-      </c>
-      <c r="C10" s="2">
-        <v>99</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
+        <v>99</v>
+      </c>
+      <c r="C11" s="2">
         <v>107</v>
-      </c>
-      <c r="C11" s="2">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
+        <v>99</v>
+      </c>
+      <c r="C12" s="2">
         <v>115</v>
-      </c>
-      <c r="C12" s="2">
-        <v>99</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
+        <v>99</v>
+      </c>
+      <c r="C13" s="2">
         <v>126</v>
-      </c>
-      <c r="C13" s="2">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
+        <v>119</v>
+      </c>
+      <c r="C14" s="2">
         <v>77</v>
-      </c>
-      <c r="C14" s="2">
-        <v>119</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
+        <v>119</v>
+      </c>
+      <c r="C15" s="2">
         <v>86</v>
-      </c>
-      <c r="C15" s="2">
-        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
+        <v>119</v>
+      </c>
+      <c r="C16" s="2">
         <v>95</v>
-      </c>
-      <c r="C16" s="2">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
+        <v>119</v>
+      </c>
+      <c r="C17" s="2">
         <v>100</v>
-      </c>
-      <c r="C17" s="2">
-        <v>119</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
+        <v>119</v>
+      </c>
+      <c r="C18" s="3">
         <v>106</v>
-      </c>
-      <c r="C18" s="3">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/precoxvendasquadratica.xlsx
+++ b/precoxvendasquadratica.xlsx
@@ -26,10 +26,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Vendas</t>
+    <t>Preço (centavos)</t>
   </si>
   <si>
-    <t>Preço (centavos)</t>
+    <t>Nível de Vendas</t>
   </si>
 </sst>
 </file>
@@ -168,7 +168,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vendas</c:v>
+                  <c:v>Nível de Vendas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -333,6 +333,7 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -346,10 +347,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -395,6 +393,7 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -408,10 +407,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1343,7 +1339,7 @@
   <dimension ref="B3:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1353,10 +1349,10 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.35">

--- a/precoxvendasquadratica.xlsx
+++ b/precoxvendasquadratica.xlsx
@@ -122,40 +122,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12924759405074362"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.82119685039370083"/>
+          <c:h val="0.66070246427529888"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -381,6 +360,7 @@
         <c:axId val="462741392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1070,6 +1050,126 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CaixaDeTexto 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400800" y="2895600"/>
+          <a:ext cx="755650" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Preço (X)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>403225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>92074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>60325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CaixaDeTexto 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2379662" y="1106487"/>
+          <a:ext cx="822325" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Vendas (Y)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1339,7 +1439,7 @@
   <dimension ref="B3:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
